--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_14_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_14_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9065.852821171657</v>
+        <v>1804104.71141316</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9065.852821171657</v>
+        <v>1804104.71141316</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7862.338119331697</v>
+        <v>471740.2871599017</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7862.338119331697</v>
+        <v>471740.2871599017</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>959875680.4531574</v>
+        <v>40060935.38810077</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9522.118508787033</v>
+        <v>1009185.014724294</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17749.05753200344</v>
+        <v>1796295.664932166</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25975.99655521984</v>
+        <v>2583406.315140038</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34358.25667677965</v>
+        <v>3359264.302470599</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>42679.58763091949</v>
+        <v>4146134.233801153</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>51000.91858505883</v>
+        <v>4933004.165131768</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>59322.24953919867</v>
+        <v>5719874.09646232</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>67643.58049333851</v>
+        <v>6506744.027792871</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>76619.53926783854</v>
+        <v>7233354.361144415</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>85087.35716619837</v>
+        <v>8019725.640498118</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>93422.06344913901</v>
+        <v>8809887.851714743</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>101741.4352546487</v>
+        <v>9596998.50192262</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>110060.8070601584</v>
+        <v>10384109.1521305</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>118382.1380142983</v>
+        <v>11170979.08346108</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>127481.8434338302</v>
+        <v>11910799.04584454</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>318</v>
@@ -27055,10 +27055,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>186</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>1231</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
